--- a/testcases/cases/testFunc1004413.xlsx
+++ b/testcases/cases/testFunc1004413.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="flowPath" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>step</t>
   </si>
@@ -42,7 +42,10 @@
     <t>get</t>
   </si>
   <si>
-    <t>http://baidu.com</t>
+    <t>https://ec1.51ykb.com/ecs-console/index.html#/login</t>
+  </si>
+  <si>
+    <t>进入ecs</t>
   </si>
   <si>
     <t>app_skip</t>
@@ -54,7 +57,19 @@
     <t>模块名</t>
   </si>
   <si>
-    <t>send_key</t>
+    <t>ceshi,999999</t>
+  </si>
+  <si>
+    <t>enter_app</t>
+  </si>
+  <si>
+    <t>enter_menu</t>
+  </si>
+  <si>
+    <t>行程方案,差旅申请单行程</t>
+  </si>
+  <si>
+    <t>wait</t>
   </si>
 </sst>
 </file>
@@ -62,12 +77,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,10 +119,86 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11.3"/>
-      <color rgb="FF6A8759"/>
-      <name val="Inconsolata"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -117,9 +208,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,73 +232,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -208,16 +240,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,14 +250,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -240,15 +257,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,13 +272,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,7 +380,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,19 +428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,127 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,9 +468,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,6 +497,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,22 +535,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,26 +563,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -562,10 +571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,133 +583,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -717,7 +726,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1068,13 +1077,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I4" sqref="$A4:$XFD20"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
@@ -1084,7 +1093,7 @@
     <col min="8" max="8" width="90" style="1" customWidth="1"/>
     <col min="9" max="9" width="4.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="20.25" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
@@ -1134,36 +1143,70 @@
       <c r="J2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:12">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2">
         <v>2</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>12</v>
+      <c r="J3" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="21" ht="13.5"/>
+    <row r="4" spans="9:11">
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="9:11">
+      <c r="I5" s="2">
+        <v>4</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="9:11">
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="4">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/testcases/cases/testFunc1004413.xlsx
+++ b/testcases/cases/testFunc1004413.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>step</t>
   </si>
@@ -42,7 +42,7 @@
     <t>get</t>
   </si>
   <si>
-    <t>https://ec1.51ykb.com/ecs-console/index.html#/login</t>
+    <t>https://ec2.51ykb.com/ecs-console/index.html#/login</t>
   </si>
   <si>
     <t>进入ecs</t>
@@ -66,7 +66,19 @@
     <t>enter_menu</t>
   </si>
   <si>
-    <t>行程方案,差旅申请单行程</t>
+    <t>整单方案,差旅申请单整单</t>
+  </si>
+  <si>
+    <t>create_bill</t>
+  </si>
+  <si>
+    <t>check_dim</t>
+  </si>
+  <si>
+    <t>add_dim_info</t>
+  </si>
+  <si>
+    <t>submit</t>
   </si>
   <si>
     <t>wait</t>
@@ -77,12 +89,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +131,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FF6A8759"/>
+      <name val="Inconsolata"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -127,7 +175,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,74 +190,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,24 +266,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,187 +290,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,41 +481,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -527,6 +510,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,10 +589,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,137 +601,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,6 +742,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1077,13 +1099,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
@@ -1143,7 +1165,7 @@
       <c r="J2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -1166,7 +1188,7 @@
       <c r="I3" s="2">
         <v>2</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -1178,7 +1200,7 @@
       <c r="I4" s="2">
         <v>3</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -1189,25 +1211,60 @@
       <c r="I5" s="2">
         <v>4</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="9:11">
+    <row r="6" spans="9:10">
       <c r="I6" s="2">
         <v>5</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="4">
-        <v>5</v>
+    </row>
+    <row r="7" spans="9:10">
+      <c r="I7" s="2">
+        <v>6</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="9:10">
+      <c r="I8" s="2">
+        <v>7</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="9:10">
+      <c r="I9" s="2">
+        <v>8</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="9:11">
+      <c r="I10" s="2">
+        <v>9</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" display="https://ec2.51ykb.com/ecs-console/index.html#/login"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
